--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H2">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I2">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J2">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>12918.29972033957</v>
+        <v>12990.20418452316</v>
       </c>
       <c r="R2">
-        <v>12918.29972033957</v>
+        <v>51960.81673809264</v>
       </c>
       <c r="S2">
-        <v>0.264558511173399</v>
+        <v>0.2592839582404765</v>
       </c>
       <c r="T2">
-        <v>0.264558511173399</v>
+        <v>0.1699456076609292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H3">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I3">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J3">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>5215.730459359283</v>
+        <v>3.389696165730001</v>
       </c>
       <c r="R3">
-        <v>5215.730459359283</v>
+        <v>20.33817699438</v>
       </c>
       <c r="S3">
-        <v>0.1068148219875463</v>
+        <v>6.7658200486962E-05</v>
       </c>
       <c r="T3">
-        <v>0.1068148219875463</v>
+        <v>6.651904386813756E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H4">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I4">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J4">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>3669.662426334266</v>
+        <v>5365.983863898857</v>
       </c>
       <c r="R4">
-        <v>3669.662426334266</v>
+        <v>32195.90318339314</v>
       </c>
       <c r="S4">
-        <v>0.07515233808141102</v>
+        <v>0.1071048242447079</v>
       </c>
       <c r="T4">
-        <v>0.07515233808141102</v>
+        <v>0.1053015074469178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H5">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I5">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J5">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>8487.366417523661</v>
+        <v>3807.649014495288</v>
       </c>
       <c r="R5">
-        <v>8487.366417523661</v>
+        <v>22845.89408697173</v>
       </c>
       <c r="S5">
-        <v>0.1738158327189008</v>
+        <v>0.07600052270502689</v>
       </c>
       <c r="T5">
-        <v>0.1738158327189008</v>
+        <v>0.07472090696221337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H6">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I6">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J6">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>82.40066399275331</v>
+        <v>8820.852833971203</v>
       </c>
       <c r="R6">
-        <v>82.40066399275331</v>
+        <v>52925.11700382722</v>
       </c>
       <c r="S6">
-        <v>0.001687512866054582</v>
+        <v>0.1760638713110985</v>
       </c>
       <c r="T6">
-        <v>0.001687512866054582</v>
+        <v>0.1730994956271998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.804712976865004</v>
+        <v>55.2535725</v>
       </c>
       <c r="H7">
-        <v>0.804712976865004</v>
+        <v>110.507145</v>
       </c>
       <c r="I7">
-        <v>0.009087840939267289</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J7">
-        <v>0.009087840939267289</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>188.7362966811879</v>
+        <v>83.34962734124251</v>
       </c>
       <c r="R7">
-        <v>188.7362966811879</v>
+        <v>333.39850936497</v>
       </c>
       <c r="S7">
-        <v>0.003865198573751893</v>
+        <v>0.001663655242667712</v>
       </c>
       <c r="T7">
-        <v>0.003865198573751893</v>
+        <v>0.001090429593377436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H8">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I8">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J8">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>76.20179688483543</v>
+        <v>198.0059507850293</v>
       </c>
       <c r="R8">
-        <v>76.20179688483543</v>
+        <v>1188.035704710176</v>
       </c>
       <c r="S8">
-        <v>0.001560564034665384</v>
+        <v>0.003952190892879021</v>
       </c>
       <c r="T8">
-        <v>0.001560564034665384</v>
+        <v>0.003885648117841005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H9">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I9">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J9">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>53.6137503704107</v>
+        <v>0.05166816492133334</v>
       </c>
       <c r="R9">
-        <v>53.6137503704107</v>
+        <v>0.465013484292</v>
       </c>
       <c r="S9">
-        <v>0.00109797529732847</v>
+        <v>1.031294514353071E-06</v>
       </c>
       <c r="T9">
-        <v>0.00109797529732847</v>
+        <v>1.520896015874111E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H10">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I10">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J10">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>124.0003824727477</v>
+        <v>81.79215059100476</v>
       </c>
       <c r="R10">
-        <v>124.0003824727477</v>
+        <v>736.1293553190429</v>
       </c>
       <c r="S10">
-        <v>0.002539448478677956</v>
+        <v>0.00163256806875321</v>
       </c>
       <c r="T10">
-        <v>0.002539448478677956</v>
+        <v>0.002407620943244916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H11">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I11">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J11">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49602819711562</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N11">
-        <v>1.49602819711562</v>
+        <v>206.736805</v>
       </c>
       <c r="O11">
-        <v>0.002712916633152936</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P11">
-        <v>0.002712916633152936</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q11">
-        <v>1.203873303974895</v>
+        <v>58.0389001328461</v>
       </c>
       <c r="R11">
-        <v>1.203873303974895</v>
+        <v>522.350101195615</v>
       </c>
       <c r="S11">
-        <v>2.465455484358643E-05</v>
+        <v>0.001158454135485974</v>
       </c>
       <c r="T11">
-        <v>2.465455484358643E-05</v>
+        <v>0.001708423980455994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.4525124146766</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H12">
-        <v>31.4525124146766</v>
+        <v>2.526643</v>
       </c>
       <c r="I12">
-        <v>0.3552017156209741</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J12">
-        <v>0.3552017156209741</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>234.538651801622</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N12">
-        <v>234.538651801622</v>
+        <v>478.929367</v>
       </c>
       <c r="O12">
-        <v>0.4253153856435704</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P12">
-        <v>0.4253153856435704</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q12">
-        <v>7376.829857512028</v>
+        <v>134.4537258472201</v>
       </c>
       <c r="R12">
-        <v>7376.829857512028</v>
+        <v>1210.083532624981</v>
       </c>
       <c r="S12">
-        <v>0.1510727546605924</v>
+        <v>0.002683691013831957</v>
       </c>
       <c r="T12">
-        <v>0.1510727546605924</v>
+        <v>0.003957758830254775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.4525124146766</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H13">
-        <v>31.4525124146766</v>
+        <v>2.526643</v>
       </c>
       <c r="I13">
-        <v>0.3552017156209741</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J13">
-        <v>0.3552017156209741</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>94.69438057492491</v>
+        <v>1.508493</v>
       </c>
       <c r="N13">
-        <v>94.69438057492491</v>
+        <v>3.016986</v>
       </c>
       <c r="O13">
-        <v>0.1717199987427602</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P13">
-        <v>0.1717199987427602</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q13">
-        <v>2978.376180632936</v>
+        <v>1.270474426333</v>
       </c>
       <c r="R13">
-        <v>2978.376180632936</v>
+        <v>7.622846557998001</v>
       </c>
       <c r="S13">
-        <v>0.06099523815985994</v>
+        <v>2.535861895807536E-05</v>
       </c>
       <c r="T13">
-        <v>0.06099523815985994</v>
+        <v>2.493165757833979E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>31.4525124146766</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H14">
-        <v>31.4525124146766</v>
+        <v>0.151144</v>
       </c>
       <c r="I14">
-        <v>0.3552017156209741</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J14">
-        <v>0.3552017156209741</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.6246872012414</v>
+        <v>235.101616</v>
       </c>
       <c r="N14">
-        <v>66.6246872012414</v>
+        <v>470.203232</v>
       </c>
       <c r="O14">
-        <v>0.1208180583997979</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P14">
-        <v>0.1208180583997979</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q14">
-        <v>2095.51380132099</v>
+        <v>11.84473288290133</v>
       </c>
       <c r="R14">
-        <v>2095.51380132099</v>
+        <v>71.068397297408</v>
       </c>
       <c r="S14">
-        <v>0.04291478162160326</v>
+        <v>0.0002364203966738897</v>
       </c>
       <c r="T14">
-        <v>0.04291478162160326</v>
+        <v>0.0002324398021892926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>31.4525124146766</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H15">
-        <v>31.4525124146766</v>
+        <v>0.151144</v>
       </c>
       <c r="I15">
-        <v>0.3552017156209741</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J15">
-        <v>0.3552017156209741</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>154.092684022355</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N15">
-        <v>154.092684022355</v>
+        <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.2794336405807186</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P15">
-        <v>0.2794336405807186</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q15">
-        <v>4846.602057223959</v>
+        <v>0.003090794037333333</v>
       </c>
       <c r="R15">
-        <v>4846.602057223959</v>
+        <v>0.027817146336</v>
       </c>
       <c r="S15">
-        <v>0.09925530853648591</v>
+        <v>6.169212590673893E-08</v>
       </c>
       <c r="T15">
-        <v>0.09925530853648591</v>
+        <v>9.09801295328531E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>31.4525124146766</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H16">
-        <v>31.4525124146766</v>
+        <v>0.151144</v>
       </c>
       <c r="I16">
-        <v>0.3552017156209741</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J16">
-        <v>0.3552017156209741</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49602819711562</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N16">
-        <v>1.49602819711562</v>
+        <v>291.346801</v>
       </c>
       <c r="O16">
-        <v>0.002712916633152936</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P16">
-        <v>0.002712916633152936</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q16">
-        <v>47.05384544248529</v>
+        <v>4.892813432260444</v>
       </c>
       <c r="R16">
-        <v>47.05384544248529</v>
+        <v>44.035320890344</v>
       </c>
       <c r="S16">
-        <v>0.0009636326424325999</v>
+        <v>9.766036127131343E-05</v>
       </c>
       <c r="T16">
-        <v>0.0009636326424325999</v>
+        <v>0.0001440240904020907</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.21146723524741</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H17">
-        <v>1.21146723524741</v>
+        <v>0.151144</v>
       </c>
       <c r="I17">
-        <v>0.01368142661244707</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J17">
-        <v>0.01368142661244707</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>234.538651801622</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N17">
-        <v>234.538651801622</v>
+        <v>206.736805</v>
       </c>
       <c r="O17">
-        <v>0.4253153856435704</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P17">
-        <v>0.4253153856435704</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q17">
-        <v>284.135892056766</v>
+        <v>3.471891961657778</v>
       </c>
       <c r="R17">
-        <v>284.135892056766</v>
+        <v>31.24702765492</v>
       </c>
       <c r="S17">
-        <v>0.005818921235827132</v>
+        <v>6.929882530056363E-05</v>
       </c>
       <c r="T17">
-        <v>0.005818921235827132</v>
+        <v>0.0001021980683864086</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.21146723524741</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H18">
-        <v>1.21146723524741</v>
+        <v>0.151144</v>
       </c>
       <c r="I18">
-        <v>0.01368142661244707</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J18">
-        <v>0.01368142661244707</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.69438057492491</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N18">
-        <v>94.69438057492491</v>
+        <v>478.929367</v>
       </c>
       <c r="O18">
-        <v>0.1717199987427602</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P18">
-        <v>0.1717199987427602</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q18">
-        <v>114.7191394285703</v>
+        <v>8.043033360649778</v>
       </c>
       <c r="R18">
-        <v>114.7191394285703</v>
+        <v>72.387300245848</v>
       </c>
       <c r="S18">
-        <v>0.002349374560688577</v>
+        <v>0.0001605386255971332</v>
       </c>
       <c r="T18">
-        <v>0.002349374560688577</v>
+        <v>0.0002367534711631314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.21146723524741</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H19">
-        <v>1.21146723524741</v>
+        <v>0.151144</v>
       </c>
       <c r="I19">
-        <v>0.01368142661244707</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J19">
-        <v>0.01368142661244707</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.6246872012414</v>
+        <v>1.508493</v>
       </c>
       <c r="N19">
-        <v>66.6246872012414</v>
+        <v>3.016986</v>
       </c>
       <c r="O19">
-        <v>0.1208180583997979</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P19">
-        <v>0.1208180583997979</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q19">
-        <v>80.71362560291142</v>
+        <v>0.07599988866400001</v>
       </c>
       <c r="R19">
-        <v>80.71362560291142</v>
+        <v>0.455999331984</v>
       </c>
       <c r="S19">
-        <v>0.001652963399455179</v>
+        <v>1.516954751343717E-06</v>
       </c>
       <c r="T19">
-        <v>0.001652963399455179</v>
+        <v>1.4914138851514E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.21146723524741</v>
+        <v>31.724292</v>
       </c>
       <c r="H20">
-        <v>1.21146723524741</v>
+        <v>95.172876</v>
       </c>
       <c r="I20">
-        <v>0.01368142661244707</v>
+        <v>0.3560840134430991</v>
       </c>
       <c r="J20">
-        <v>0.01368142661244707</v>
+        <v>0.4514816678199412</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>154.092684022355</v>
+        <v>235.101616</v>
       </c>
       <c r="N20">
-        <v>154.092684022355</v>
+        <v>470.203232</v>
       </c>
       <c r="O20">
-        <v>0.2794336405807186</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P20">
-        <v>0.2794336405807186</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q20">
-        <v>186.6782378844152</v>
+        <v>7458.432315655872</v>
       </c>
       <c r="R20">
-        <v>186.6782378844152</v>
+        <v>44750.59389393523</v>
       </c>
       <c r="S20">
-        <v>0.003823050846654013</v>
+        <v>0.1488700120184389</v>
       </c>
       <c r="T20">
-        <v>0.003823050846654013</v>
+        <v>0.1463634975336505</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.724292</v>
+      </c>
+      <c r="H21">
+        <v>95.172876</v>
+      </c>
+      <c r="I21">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J21">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.184044</v>
+      </c>
+      <c r="O21">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P21">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q21">
+        <v>1.946221865616</v>
+      </c>
+      <c r="R21">
+        <v>17.515996790544</v>
+      </c>
+      <c r="S21">
+        <v>3.884651093724166E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.728868222684438E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>31.724292</v>
+      </c>
+      <c r="H22">
+        <v>95.172876</v>
+      </c>
+      <c r="I22">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J22">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N22">
+        <v>291.346801</v>
+      </c>
+      <c r="O22">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P22">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q22">
+        <v>3080.923662729964</v>
+      </c>
+      <c r="R22">
+        <v>27728.31296456968</v>
+      </c>
+      <c r="S22">
+        <v>0.06149511362270363</v>
+      </c>
+      <c r="T22">
+        <v>0.09068958673087231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>31.724292</v>
+      </c>
+      <c r="H23">
+        <v>95.172876</v>
+      </c>
+      <c r="I23">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J23">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N23">
+        <v>206.736805</v>
+      </c>
+      <c r="O23">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P23">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q23">
+        <v>2186.19292298902</v>
+      </c>
+      <c r="R23">
+        <v>19675.73630690118</v>
+      </c>
+      <c r="S23">
+        <v>0.04363632368652548</v>
+      </c>
+      <c r="T23">
+        <v>0.06435243271303651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>31.724292</v>
+      </c>
+      <c r="H24">
+        <v>95.172876</v>
+      </c>
+      <c r="I24">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J24">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N24">
+        <v>478.929367</v>
+      </c>
+      <c r="O24">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P24">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q24">
+        <v>5064.565028694388</v>
+      </c>
+      <c r="R24">
+        <v>45581.08525824949</v>
+      </c>
+      <c r="S24">
+        <v>0.1010885162968188</v>
+      </c>
+      <c r="T24">
+        <v>0.1490797435133269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>31.724292</v>
+      </c>
+      <c r="H25">
+        <v>95.172876</v>
+      </c>
+      <c r="I25">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J25">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.508493</v>
+      </c>
+      <c r="N25">
+        <v>3.016986</v>
+      </c>
+      <c r="O25">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P25">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q25">
+        <v>47.85587241195601</v>
+      </c>
+      <c r="R25">
+        <v>287.135234471736</v>
+      </c>
+      <c r="S25">
+        <v>0.0009552013076751073</v>
+      </c>
+      <c r="T25">
+        <v>0.0009391186468281406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.2216945</v>
+      </c>
+      <c r="H26">
+        <v>2.443389</v>
+      </c>
+      <c r="I26">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J26">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>235.101616</v>
+      </c>
+      <c r="N26">
+        <v>470.203232</v>
+      </c>
+      <c r="O26">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P26">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q26">
+        <v>287.222351208312</v>
+      </c>
+      <c r="R26">
+        <v>1148.889404833248</v>
+      </c>
+      <c r="S26">
+        <v>0.005732946692643626</v>
+      </c>
+      <c r="T26">
+        <v>0.003757614300478309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.2216945</v>
+      </c>
+      <c r="H27">
+        <v>2.443389</v>
+      </c>
+      <c r="I27">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J27">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.184044</v>
+      </c>
+      <c r="O27">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P27">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q27">
+        <v>0.074948514186</v>
+      </c>
+      <c r="R27">
+        <v>0.449691085116</v>
+      </c>
+      <c r="S27">
+        <v>1.495969358629594E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.47078182209779E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.2216945</v>
+      </c>
+      <c r="H28">
+        <v>2.443389</v>
+      </c>
+      <c r="I28">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J28">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N28">
+        <v>291.346801</v>
+      </c>
+      <c r="O28">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P28">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q28">
+        <v>118.6455947914315</v>
+      </c>
+      <c r="R28">
+        <v>711.8735687485889</v>
+      </c>
+      <c r="S28">
+        <v>0.00236816134745362</v>
+      </c>
+      <c r="T28">
+        <v>0.002328288772451926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.2216945</v>
+      </c>
+      <c r="H29">
+        <v>2.443389</v>
+      </c>
+      <c r="I29">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J29">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N29">
+        <v>206.736805</v>
+      </c>
+      <c r="O29">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P29">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q29">
+        <v>84.18973920535748</v>
+      </c>
+      <c r="R29">
+        <v>505.138435232145</v>
+      </c>
+      <c r="S29">
+        <v>0.001680423842021372</v>
+      </c>
+      <c r="T29">
+        <v>0.001652130657628478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.21146723524741</v>
-      </c>
-      <c r="H21">
-        <v>1.21146723524741</v>
-      </c>
-      <c r="I21">
-        <v>0.01368142661244707</v>
-      </c>
-      <c r="J21">
-        <v>0.01368142661244707</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.49602819711562</v>
-      </c>
-      <c r="N21">
-        <v>1.49602819711562</v>
-      </c>
-      <c r="O21">
-        <v>0.002712916633152936</v>
-      </c>
-      <c r="P21">
-        <v>0.002712916633152936</v>
-      </c>
-      <c r="Q21">
-        <v>1.812389143811828</v>
-      </c>
-      <c r="R21">
-        <v>1.812389143811828</v>
-      </c>
-      <c r="S21">
-        <v>3.711656982216889E-05</v>
-      </c>
-      <c r="T21">
-        <v>3.711656982216889E-05</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.2216945</v>
+      </c>
+      <c r="H30">
+        <v>2.443389</v>
+      </c>
+      <c r="I30">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J30">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N30">
+        <v>478.929367</v>
+      </c>
+      <c r="O30">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P30">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q30">
+        <v>195.0351245174605</v>
+      </c>
+      <c r="R30">
+        <v>1170.210747104763</v>
+      </c>
+      <c r="S30">
+        <v>0.003892893318879548</v>
+      </c>
+      <c r="T30">
+        <v>0.003827348933148602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2216945</v>
+      </c>
+      <c r="H31">
+        <v>2.443389</v>
+      </c>
+      <c r="I31">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J31">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.508493</v>
+      </c>
+      <c r="N31">
+        <v>3.016986</v>
+      </c>
+      <c r="O31">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P31">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q31">
+        <v>1.8429176013885</v>
+      </c>
+      <c r="R31">
+        <v>7.371670405554</v>
+      </c>
+      <c r="S31">
+        <v>3.678456193693736E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.411014847712245E-05</v>
       </c>
     </row>
   </sheetData>
